--- a/src/main/java/testData/TestData.xlsx
+++ b/src/main/java/testData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperUser\Desktop\auto-project\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73586447-F319-459C-A04B-8405F55305B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02629F98-263C-414F-903C-05C43EB77071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A6A5EA87-CE37-411D-8BBD-77230270DDAE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -47,13 +47,16 @@
     <t>DataProviderWithExcelLoginPageTest_2</t>
   </si>
   <si>
-    <t>p.sasnik@gmail.com</t>
-  </si>
-  <si>
-    <t>tunein.user125@gmail.com</t>
-  </si>
-  <si>
-    <t>Tunein123</t>
+    <t>cjwumhh_sadansen_1568306401@tfbnw.net</t>
+  </si>
+  <si>
+    <t>jygjdxnth2g</t>
+  </si>
+  <si>
+    <t>rdgunjp_mcdonaldson_1568306533@tfbnw.net</t>
+  </si>
+  <si>
+    <t>m05ip2eyz5v</t>
   </si>
 </sst>
 </file>
@@ -429,14 +432,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,10 +469,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
